--- a/Data/Data_results_Class_Whole_Cond.xlsx
+++ b/Data/Data_results_Class_Whole_Cond.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\Documents\GitHub\Balance_and_gait\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptkfs-my.sharepoint.com/personal/ahmed_tabia_pt_kfs_edu_eg/Documents/Gait_Fatigue_Mood/Balance_and_gait/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EE9C8F-14B2-49B2-8681-E8464D35A2A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{54EE9C8F-14B2-49B2-8681-E8464D35A2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E140E89-6A99-B74E-85EA-5A5C6755EBD6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,6 +1534,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1578,6 +1590,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1891,24 +1908,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="226.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>195</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>-1.3427401049279299</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>213</v>
       </c>
@@ -2095,7 +2115,7 @@
         <v>-1.40384881054995</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>223</v>
       </c>
@@ -2158,7 +2178,7 @@
         <v>-1.4890034133052299</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>248</v>
       </c>
@@ -2221,7 +2241,7 @@
         <v>-2.5678215571218002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>253</v>
       </c>
@@ -2284,7 +2304,7 @@
         <v>-1.3355428294684</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>284</v>
       </c>
@@ -2349,72 +2369,72 @@
         <v>-0.99455194320037099</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>303</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="8">
         <v>0.66816239316239334</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>0.38461538461538458</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>0.67948717948717952</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>0.76442307692307698</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="6">
         <v>0.91666666666666663</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="6">
         <v>0.6324756097588915</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="6">
         <v>0.70559523809523828</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="6">
         <v>0.66840367965367986</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="6">
         <v>0.64378968253968238</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="6">
         <v>-0.22411844737330319</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="6">
         <v>-0.64485650350304102</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>320</v>
       </c>
@@ -2479,7 +2499,7 @@
         <v>-1.1347120011065901</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>325</v>
       </c>
@@ -2544,7 +2564,7 @@
         <v>-0.66183609250255704</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>343</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>-0.64967827568777103</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>105</v>
       </c>
@@ -2674,7 +2694,7 @@
         <v>-0.65490771040560702</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>122</v>
       </c>
@@ -2739,7 +2759,7 @@
         <v>-0.83927776466686599</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>132</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>-0.67292268833092905</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>145</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>-0.67130137567487802</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>163</v>
       </c>
@@ -2934,7 +2954,7 @@
         <v>-0.60802057233939699</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>194</v>
       </c>
@@ -2996,7 +3016,7 @@
         <v>-2.4544706623129802</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>189</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>-23.468655755516199</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>197</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>-6.4638705983014999</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>186</v>
       </c>
@@ -3183,7 +3203,7 @@
         <v>-1.58294637679809</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>183</v>
       </c>
@@ -3246,7 +3266,7 @@
         <v>-1.3349831575114299</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>185</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>-1.3349831575114299</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>182</v>
       </c>
@@ -3370,7 +3390,7 @@
         <v>-1.3529686304280699</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>184</v>
       </c>
@@ -3432,7 +3452,7 @@
         <v>-1.3529686304280699</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>187</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>-1.7972886573295399</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>180</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>-1.4522047211414</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>181</v>
       </c>
@@ -3618,7 +3638,7 @@
         <v>-1.40856536418609</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>193</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>-2.18268730521002</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>192</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>-5.9749982932239298</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>191</v>
       </c>
@@ -3804,7 +3824,7 @@
         <v>-8.9217960257223901</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>190</v>
       </c>
@@ -3866,7 +3886,7 @@
         <v>-8.8418175048885495</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>196</v>
       </c>
@@ -3928,7 +3948,7 @@
         <v>-6.7288263780242801</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>188</v>
       </c>
@@ -3990,7 +4010,7 @@
         <v>-25.904082296182999</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>215</v>
       </c>
@@ -4053,7 +4073,7 @@
         <v>-5.1183482384366803</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>211</v>
       </c>
@@ -4115,7 +4135,7 @@
         <v>-1.83923182222209</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>199</v>
       </c>
@@ -4177,7 +4197,7 @@
         <v>-1.3478827210578199</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>198</v>
       </c>
@@ -4239,7 +4259,7 @@
         <v>-1.42802960246007</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>212</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>-2.3768034406320302</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>204</v>
       </c>
@@ -4364,7 +4384,7 @@
         <v>-1.4018664552828499</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>201</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>-1.3349172225284101</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>203</v>
       </c>
@@ -4488,7 +4508,7 @@
         <v>-1.3349172225284101</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>214</v>
       </c>
@@ -4550,7 +4570,7 @@
         <v>-5.7866663474703799</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>210</v>
       </c>
@@ -4612,7 +4632,7 @@
         <v>-4.2456517914918397</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>200</v>
       </c>
@@ -4674,7 +4694,7 @@
         <v>-1.35284341535387</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>202</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>-1.35284341535387</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>206</v>
       </c>
@@ -4798,7 +4818,7 @@
         <v>-23.911460581092001</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>207</v>
       </c>
@@ -4860,7 +4880,7 @@
         <v>-24.9077714386375</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>205</v>
       </c>
@@ -4922,7 +4942,7 @@
         <v>-2.1719115052763298</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>208</v>
       </c>
@@ -4984,7 +5004,7 @@
         <v>-8.8307528097942498</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>209</v>
       </c>
@@ -5046,7 +5066,7 @@
         <v>-9.0173693584065404</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>225</v>
       </c>
@@ -5108,7 +5128,7 @@
         <v>-23.911460581092001</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>233</v>
       </c>
@@ -5170,7 +5190,7 @@
         <v>-6.2502212328636402</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>231</v>
       </c>
@@ -5232,7 +5252,7 @@
         <v>-1.5087780259911301</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>219</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>-1.3348982788000601</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>221</v>
       </c>
@@ -5356,7 +5376,7 @@
         <v>-1.3348982788000601</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>217</v>
       </c>
@@ -5419,7 +5439,7 @@
         <v>-1.42329413116109</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>218</v>
       </c>
@@ -5482,7 +5502,7 @@
         <v>-1.3527462874981</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>220</v>
       </c>
@@ -5544,7 +5564,7 @@
         <v>-1.3527462874981</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>224</v>
       </c>
@@ -5606,7 +5626,7 @@
         <v>-23.911460581092001</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>230</v>
       </c>
@@ -5668,7 +5688,7 @@
         <v>-2.9117907276692101</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>232</v>
       </c>
@@ -5730,7 +5750,7 @@
         <v>-6.6853785414885101</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>229</v>
       </c>
@@ -5792,7 +5812,7 @@
         <v>-2.3988458089887601</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>216</v>
       </c>
@@ -5854,7 +5874,7 @@
         <v>-1.4855071824705199</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>228</v>
       </c>
@@ -5916,7 +5936,7 @@
         <v>-4.1758000773306101</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>222</v>
       </c>
@@ -5978,7 +5998,7 @@
         <v>-1.5208909314985699</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>227</v>
       </c>
@@ -6040,7 +6060,7 @@
         <v>-8.7729036791490103</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>226</v>
       </c>
@@ -6102,7 +6122,7 @@
         <v>-6.9243741977068698</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>245</v>
       </c>
@@ -6165,7 +6185,7 @@
         <v>-8.9700652679330108</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>251</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>-6.0648053789119798</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>249</v>
       </c>
@@ -6289,7 +6309,7 @@
         <v>-1.43017564591771</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>235</v>
       </c>
@@ -6351,7 +6371,7 @@
         <v>-1.4234233644051799</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>247</v>
       </c>
@@ -6413,7 +6433,7 @@
         <v>-1.7417239704329801</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>234</v>
       </c>
@@ -6475,7 +6495,7 @@
         <v>-1.4047808268739801</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>250</v>
       </c>
@@ -6538,7 +6558,7 @@
         <v>-6.3951931778702802</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>241</v>
       </c>
@@ -6601,7 +6621,7 @@
         <v>-1.3809731608948199</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>237</v>
       </c>
@@ -6663,7 +6683,7 @@
         <v>-1.3349773802910401</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>239</v>
       </c>
@@ -6725,7 +6745,7 @@
         <v>-1.3349773802910401</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>236</v>
       </c>
@@ -6787,7 +6807,7 @@
         <v>-1.3524124329845799</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>238</v>
       </c>
@@ -6849,7 +6869,7 @@
         <v>-1.3524124329845799</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>243</v>
       </c>
@@ -6911,7 +6931,7 @@
         <v>-24.9077714386375</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>246</v>
       </c>
@@ -6973,7 +6993,7 @@
         <v>-3.17774076837819</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>240</v>
       </c>
@@ -7035,7 +7055,7 @@
         <v>-1.6581055324212499</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>242</v>
       </c>
@@ -7097,7 +7117,7 @@
         <v>-26.2361859153648</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>244</v>
       </c>
@@ -7159,7 +7179,7 @@
         <v>-8.8528821999828402</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>267</v>
       </c>
@@ -7222,7 +7242,7 @@
         <v>-1.3828783606397601</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>269</v>
       </c>
@@ -7284,7 +7304,7 @@
         <v>-5.3021491678328898</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>263</v>
       </c>
@@ -7346,7 +7366,7 @@
         <v>-9.0008003131777894</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>261</v>
       </c>
@@ -7408,7 +7428,7 @@
         <v>-23.468655755516199</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>268</v>
       </c>
@@ -7470,7 +7490,7 @@
         <v>-5.5597930817180696</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>252</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>-1.3948137941651699</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>264</v>
       </c>
@@ -7594,7 +7614,7 @@
         <v>-9.7327166243882601</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>265</v>
       </c>
@@ -7657,7 +7677,7 @@
         <v>-1.8594304194229001</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>254</v>
       </c>
@@ -7719,7 +7739,7 @@
         <v>-1.35352580054186</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>256</v>
       </c>
@@ -7781,7 +7801,7 @@
         <v>-1.35352580054186</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>266</v>
       </c>
@@ -7843,7 +7863,7 @@
         <v>-23.813069720963998</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>255</v>
       </c>
@@ -7905,7 +7925,7 @@
         <v>-1.3531614187529599</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>257</v>
       </c>
@@ -7967,7 +7987,7 @@
         <v>-1.3531614187529599</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>260</v>
       </c>
@@ -8029,7 +8049,7 @@
         <v>-26.2361859153648</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>258</v>
       </c>
@@ -8091,7 +8111,7 @@
         <v>-3.91665860023938</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>259</v>
       </c>
@@ -8153,7 +8173,7 @@
         <v>-1.47333645905917</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>262</v>
       </c>
@@ -8215,7 +8235,7 @@
         <v>-6.7581665291000297</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>279</v>
       </c>
@@ -8280,7 +8300,7 @@
         <v>-13.8377763770445</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>273</v>
       </c>
@@ -8345,7 +8365,7 @@
         <v>-0.67618279655980296</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>275</v>
       </c>
@@ -8410,7 +8430,7 @@
         <v>-0.67618279655980296</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>272</v>
       </c>
@@ -8475,7 +8495,7 @@
         <v>-0.67568981978544396</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>274</v>
       </c>
@@ -8540,7 +8560,7 @@
         <v>-0.67568981978544396</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>281</v>
       </c>
@@ -8605,7 +8625,7 @@
         <v>-0.78973827519238005</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>285</v>
       </c>
@@ -8670,7 +8690,7 @@
         <v>-0.69685410976651996</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>277</v>
       </c>
@@ -8735,7 +8755,7 @@
         <v>-0.91155185355102497</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>271</v>
       </c>
@@ -8800,7 +8820,7 @@
         <v>-0.74999192830458905</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>287</v>
       </c>
@@ -8865,7 +8885,7 @@
         <v>-4.3807496932208396</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>280</v>
       </c>
@@ -8930,7 +8950,7 @@
         <v>-0.79649673869760995</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>276</v>
       </c>
@@ -8995,7 +9015,7 @@
         <v>-1.5550421797328799</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>282</v>
       </c>
@@ -9060,7 +9080,7 @@
         <v>-1.81951906679762</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>270</v>
       </c>
@@ -9125,7 +9145,7 @@
         <v>-0.77512521205032703</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>283</v>
       </c>
@@ -9190,7 +9210,7 @@
         <v>-0.83491845041214796</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>278</v>
       </c>
@@ -9255,7 +9275,7 @@
         <v>-20.1477861464958</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>286</v>
       </c>
@@ -9320,7 +9340,7 @@
         <v>-5.2896306239173096</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>302</v>
       </c>
@@ -9385,7 +9405,7 @@
         <v>-0.93533639163525895</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>297</v>
       </c>
@@ -9450,7 +9470,7 @@
         <v>-13.284298536009899</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>301</v>
       </c>
@@ -9515,7 +9535,7 @@
         <v>-0.85099880693672703</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>305</v>
       </c>
@@ -9580,7 +9600,7 @@
         <v>-3.8099893444812398</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>300</v>
       </c>
@@ -9645,7 +9665,7 @@
         <v>-2.2605126790521899</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>288</v>
       </c>
@@ -9710,7 +9730,7 @@
         <v>-0.73152804824528905</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>289</v>
       </c>
@@ -9775,7 +9795,7 @@
         <v>-0.70274213683140896</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>295</v>
       </c>
@@ -9840,7 +9860,7 @@
         <v>-0.69963413795484997</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>291</v>
       </c>
@@ -9905,7 +9925,7 @@
         <v>-0.67615998518324405</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>293</v>
       </c>
@@ -9970,7 +9990,7 @@
         <v>-0.67615998518324405</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>290</v>
       </c>
@@ -10035,7 +10055,7 @@
         <v>-0.67576254917969703</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>292</v>
       </c>
@@ -10100,7 +10120,7 @@
         <v>-0.67576254917969703</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>296</v>
       </c>
@@ -10165,7 +10185,7 @@
         <v>-15.941158243211801</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>304</v>
       </c>
@@ -10230,7 +10250,7 @@
         <v>-4.0087159834594699</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>298</v>
       </c>
@@ -10295,7 +10315,7 @@
         <v>-0.783824800885499</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>294</v>
       </c>
@@ -10360,7 +10380,7 @@
         <v>-1.3465625390348199</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>299</v>
       </c>
@@ -10425,7 +10445,7 @@
         <v>-0.83866726759586396</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>317</v>
       </c>
@@ -10490,7 +10510,7 @@
         <v>-0.76538725942506303</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>307</v>
       </c>
@@ -10555,7 +10575,7 @@
         <v>-0.71053807830423099</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>309</v>
       </c>
@@ -10620,7 +10640,7 @@
         <v>-0.67616159132354103</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>311</v>
       </c>
@@ -10685,7 +10705,7 @@
         <v>-0.67616159132354103</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>323</v>
       </c>
@@ -10750,7 +10770,7 @@
         <v>-3.3958953102192502</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>308</v>
       </c>
@@ -10815,7 +10835,7 @@
         <v>-0.67568081735566099</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>310</v>
       </c>
@@ -10880,7 +10900,7 @@
         <v>-0.67568081735566099</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>313</v>
       </c>
@@ -10945,7 +10965,7 @@
         <v>-2.1462954760998199</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>315</v>
       </c>
@@ -11010,7 +11030,7 @@
         <v>-16.605434677506999</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>314</v>
       </c>
@@ -11075,7 +11095,7 @@
         <v>-17.2695880968128</v>
       </c>
     </row>
-    <row r="146" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>316</v>
       </c>
@@ -11140,7 +11160,7 @@
         <v>-0.71880657396810299</v>
       </c>
     </row>
-    <row r="147" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>321</v>
       </c>
@@ -11205,7 +11225,7 @@
         <v>-0.73598375031230301</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>312</v>
       </c>
@@ -11270,7 +11290,7 @@
         <v>-1.41995668270366</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>319</v>
       </c>
@@ -11335,7 +11355,7 @@
         <v>-0.87411912386855894</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>306</v>
       </c>
@@ -11400,7 +11420,7 @@
         <v>-0.75477306739377104</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>322</v>
       </c>
@@ -11465,7 +11485,7 @@
         <v>-4.7722860806739202</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>318</v>
       </c>
@@ -11530,7 +11550,7 @@
         <v>-1.7287197362517599</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>336</v>
       </c>
@@ -11595,7 +11615,7 @@
         <v>-1.7399366312685001</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>337</v>
       </c>
@@ -11660,7 +11680,7 @@
         <v>-0.86583262056243804</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>335</v>
       </c>
@@ -11725,7 +11745,7 @@
         <v>-0.82363403487293696</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>324</v>
       </c>
@@ -11790,7 +11810,7 @@
         <v>-0.71415583774218305</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>341</v>
       </c>
@@ -11855,7 +11875,7 @@
         <v>-3.5195678530446899</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>339</v>
       </c>
@@ -11920,7 +11940,7 @@
         <v>-0.70984418940057303</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>331</v>
       </c>
@@ -11985,7 +12005,7 @@
         <v>-0.69976405242313</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>327</v>
       </c>
@@ -12050,7 +12070,7 @@
         <v>-0.67615977894832202</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>329</v>
       </c>
@@ -12115,7 +12135,7 @@
         <v>-0.67615977894832202</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>333</v>
       </c>
@@ -12180,7 +12200,7 @@
         <v>-15.941158243211801</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>326</v>
       </c>
@@ -12245,7 +12265,7 @@
         <v>-0.67632353518343302</v>
       </c>
     </row>
-    <row r="164" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>328</v>
       </c>
@@ -12310,7 +12330,7 @@
         <v>-0.67632353518343302</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>340</v>
       </c>
@@ -12375,7 +12395,7 @@
         <v>-4.8442104308294898</v>
       </c>
     </row>
-    <row r="166" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>330</v>
       </c>
@@ -12440,7 +12460,7 @@
         <v>-1.2165324512262301</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>332</v>
       </c>
@@ -12505,7 +12525,7 @@
         <v>-16.6054013609474</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>338</v>
       </c>
@@ -12570,7 +12590,7 @@
         <v>-1.1540003349999901</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>334</v>
       </c>
@@ -12635,7 +12655,7 @@
         <v>-0.81068498222218699</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>359</v>
       </c>
@@ -12700,7 +12720,7 @@
         <v>-3.5554718482045899</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>351</v>
       </c>
@@ -12765,7 +12785,7 @@
         <v>-13.284329289757199</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>345</v>
       </c>
@@ -12830,7 +12850,7 @@
         <v>-0.67701792337623601</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>347</v>
       </c>
@@ -12895,7 +12915,7 @@
         <v>-0.67701792337623601</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>344</v>
       </c>
@@ -12960,7 +12980,7 @@
         <v>-0.67780764159385898</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>346</v>
       </c>
@@ -13025,7 +13045,7 @@
         <v>-0.67780764159385898</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>354</v>
       </c>
@@ -13090,7 +13110,7 @@
         <v>-3.8247768623255798</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>352</v>
       </c>
@@ -13155,7 +13175,7 @@
         <v>-0.74526233081873405</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>342</v>
       </c>
@@ -13220,7 +13240,7 @@
         <v>-0.71659934558251404</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>353</v>
       </c>
@@ -13285,7 +13305,7 @@
         <v>-0.82521029142759394</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>349</v>
       </c>
@@ -13350,7 +13370,7 @@
         <v>-0.92650540782624402</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>350</v>
       </c>
@@ -13415,7 +13435,7 @@
         <v>-17.2695880968128</v>
       </c>
     </row>
-    <row r="182" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>358</v>
       </c>
@@ -13480,7 +13500,7 @@
         <v>-3.8912895443557902</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>357</v>
       </c>
@@ -13545,7 +13565,7 @@
         <v>-0.72014535354223697</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>348</v>
       </c>
@@ -13610,7 +13630,7 @@
         <v>-2.4401143697595402</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>355</v>
       </c>
@@ -13675,7 +13695,7 @@
         <v>-0.92551255090139695</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>356</v>
       </c>
@@ -13740,7 +13760,7 @@
         <v>-18.4027397323195</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>96</v>
       </c>
@@ -13805,7 +13825,7 @@
         <v>-0.64919957411886597</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>97</v>
       </c>
@@ -13870,7 +13890,7 @@
         <v>-0.675052460736839</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>93</v>
       </c>
@@ -13935,7 +13955,7 @@
         <v>-0.66822523893473795</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>95</v>
       </c>
@@ -14000,7 +14020,7 @@
         <v>-0.66822523893473795</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>92</v>
       </c>
@@ -14065,7 +14085,7 @@
         <v>-0.66793468296991299</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>94</v>
       </c>
@@ -14130,7 +14150,7 @@
         <v>-0.66793468296991299</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>104</v>
       </c>
@@ -14195,7 +14215,7 @@
         <v>-0.97321880630653401</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>107</v>
       </c>
@@ -14260,7 +14280,7 @@
         <v>-3.2165810649028699</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>103</v>
       </c>
@@ -14325,7 +14345,7 @@
         <v>-0.94988187748182495</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>102</v>
       </c>
@@ -14390,7 +14410,7 @@
         <v>-2.2992571541573201</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>101</v>
       </c>
@@ -14455,7 +14475,7 @@
         <v>-0.82019620559852502</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>106</v>
       </c>
@@ -14520,7 +14540,7 @@
         <v>-3.40436424693136</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>91</v>
       </c>
@@ -14585,7 +14605,7 @@
         <v>-0.68352934211134997</v>
       </c>
     </row>
-    <row r="200" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>100</v>
       </c>
@@ -14650,7 +14670,7 @@
         <v>-0.77121694383527095</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>90</v>
       </c>
@@ -14715,7 +14735,7 @@
         <v>-0.68419686082229103</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>99</v>
       </c>
@@ -14780,7 +14800,7 @@
         <v>-17.269621413372398</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>98</v>
       </c>
@@ -14845,7 +14865,7 @@
         <v>-17.933885033606199</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>109</v>
       </c>
@@ -14910,7 +14930,7 @@
         <v>-0.62351248180640495</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>114</v>
       </c>
@@ -14975,7 +14995,7 @@
         <v>-0.66267135751148298</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>108</v>
       </c>
@@ -15040,7 +15060,7 @@
         <v>-0.64557279996241501</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>125</v>
       </c>
@@ -15105,7 +15125,7 @@
         <v>-3.04993154431715</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>115</v>
       </c>
@@ -15170,7 +15190,7 @@
         <v>-0.65643176572955497</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>111</v>
       </c>
@@ -15235,7 +15255,7 @@
         <v>-0.66822669913594002</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>113</v>
       </c>
@@ -15300,7 +15320,7 @@
         <v>-0.66822669913594002</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>110</v>
       </c>
@@ -15365,7 +15385,7 @@
         <v>-0.66786860242721702</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>112</v>
       </c>
@@ -15430,7 +15450,7 @@
         <v>-0.66786860242721702</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>123</v>
       </c>
@@ -15495,7 +15515,7 @@
         <v>-0.68769673468728099</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>117</v>
       </c>
@@ -15560,7 +15580,7 @@
         <v>-15.1662267331438</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>124</v>
       </c>
@@ -15625,7 +15645,7 @@
         <v>-3.3589311060906901</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>116</v>
       </c>
@@ -15690,7 +15710,7 @@
         <v>-14.391256780891499</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>119</v>
       </c>
@@ -15755,7 +15775,7 @@
         <v>-0.78294979279032695</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>121</v>
       </c>
@@ -15820,7 +15840,7 @@
         <v>-0.77527912315210901</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>118</v>
       </c>
@@ -15885,7 +15905,7 @@
         <v>-0.75581249661500005</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>120</v>
       </c>
@@ -15950,7 +15970,7 @@
         <v>-1.6007517572512699</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>129</v>
       </c>
@@ -16015,7 +16035,7 @@
         <v>-0.66824354454009904</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>131</v>
       </c>
@@ -16080,7 +16100,7 @@
         <v>-0.66824354454009904</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>128</v>
       </c>
@@ -16145,7 +16165,7 @@
         <v>-0.66784521626443705</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>130</v>
       </c>
@@ -16210,7 +16230,7 @@
         <v>-0.66784521626443705</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>127</v>
       </c>
@@ -16275,7 +16295,7 @@
         <v>-0.679863615373136</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>133</v>
       </c>
@@ -16340,7 +16360,7 @@
         <v>-0.76291467042147798</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>141</v>
       </c>
@@ -16405,7 +16425,7 @@
         <v>-0.66686551425765095</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>139</v>
       </c>
@@ -16470,7 +16490,7 @@
         <v>-0.83457094651855401</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>143</v>
       </c>
@@ -16535,7 +16555,7 @@
         <v>-3.6927623899405599</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>138</v>
       </c>
@@ -16600,7 +16620,7 @@
         <v>-1.9450160729186401</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>126</v>
       </c>
@@ -16665,7 +16685,7 @@
         <v>-0.68871388174581005</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>137</v>
       </c>
@@ -16730,7 +16750,7 @@
         <v>-0.81366162726024105</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>136</v>
       </c>
@@ -16795,7 +16815,7 @@
         <v>-0.76333939348203195</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>134</v>
       </c>
@@ -16860,7 +16880,7 @@
         <v>-15.941158243211801</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>142</v>
       </c>
@@ -16925,7 +16945,7 @@
         <v>-4.2694382874706802</v>
       </c>
     </row>
-    <row r="236" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>140</v>
       </c>
@@ -16990,7 +17010,7 @@
         <v>-1.05866051770988</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>135</v>
       </c>
@@ -17055,7 +17075,7 @@
         <v>-15.9412197507065</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>147</v>
       </c>
@@ -17120,7 +17140,7 @@
         <v>-0.66821978049130504</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>149</v>
       </c>
@@ -17185,7 +17205,7 @@
         <v>-0.66821978049130504</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>146</v>
       </c>
@@ -17250,7 +17270,7 @@
         <v>-0.66787467174663295</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>148</v>
       </c>
@@ -17315,7 +17335,7 @@
         <v>-0.66787467174663295</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>150</v>
       </c>
@@ -17380,7 +17400,7 @@
         <v>-0.72164966944485998</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>151</v>
       </c>
@@ -17445,7 +17465,7 @@
         <v>-0.70349738104069204</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>158</v>
       </c>
@@ -17510,7 +17530,7 @@
         <v>-0.99671164164332604</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>159</v>
       </c>
@@ -17575,7 +17595,7 @@
         <v>-0.68944481545877401</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>157</v>
       </c>
@@ -17640,7 +17660,7 @@
         <v>-0.75042911322726302</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>161</v>
       </c>
@@ -17705,7 +17725,7 @@
         <v>-4.13773354521968</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>144</v>
       </c>
@@ -17770,7 +17790,7 @@
         <v>-0.70104697217599699</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>160</v>
       </c>
@@ -17835,7 +17855,7 @@
         <v>-3.7931402123259401</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>153</v>
       </c>
@@ -17900,7 +17920,7 @@
         <v>-16.605339853452801</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>152</v>
       </c>
@@ -17965,7 +17985,7 @@
         <v>-17.2695214636937</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>155</v>
       </c>
@@ -18030,7 +18050,7 @@
         <v>-0.76819014482742998</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>154</v>
       </c>
@@ -18095,7 +18115,7 @@
         <v>-0.79879850870440905</v>
       </c>
     </row>
-    <row r="254" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>156</v>
       </c>
@@ -18160,7 +18180,7 @@
         <v>-1.1854541064442701</v>
       </c>
     </row>
-    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>179</v>
       </c>
@@ -18225,7 +18245,7 @@
         <v>-3.4999161187022301</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>168</v>
       </c>
@@ -18290,7 +18310,7 @@
         <v>-1.50963131424386</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>169</v>
       </c>
@@ -18355,7 +18375,7 @@
         <v>-0.82331817555606901</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>164</v>
       </c>
@@ -18420,7 +18440,7 @@
         <v>-0.66830841043056899</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>166</v>
       </c>
@@ -18485,7 +18505,7 @@
         <v>-0.66830841043056899</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>165</v>
       </c>
@@ -18550,7 +18570,7 @@
         <v>-0.66822526376945901</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>167</v>
       </c>
@@ -18615,7 +18635,7 @@
         <v>-0.66822526376945901</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>178</v>
       </c>
@@ -18680,7 +18700,7 @@
         <v>-3.0156402442774501</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>162</v>
       </c>
@@ -18745,7 +18765,7 @@
         <v>-0.66772958458218801</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>175</v>
       </c>
@@ -18810,7 +18830,7 @@
         <v>-0.77228570119162498</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>177</v>
       </c>
@@ -18875,7 +18895,7 @@
         <v>-0.71213669829834403</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>174</v>
       </c>
@@ -18940,7 +18960,7 @@
         <v>-5.2026009062299297</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>170</v>
       </c>
@@ -19005,7 +19025,7 @@
         <v>-15.941158243211801</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>171</v>
       </c>
@@ -19070,7 +19090,7 @@
         <v>-15.941158243211801</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>176</v>
       </c>
@@ -19135,7 +19155,7 @@
         <v>-16.242786588135498</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>173</v>
       </c>
@@ -19200,7 +19220,7 @@
         <v>-0.78671147618453896</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>172</v>
       </c>
@@ -19266,7 +19286,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:U271">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U271">
     <sortCondition sortBy="cellColor" ref="B2:B271" dxfId="0"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
